--- a/Section 6/66. Calculating Internal Rate of Return (IRR) in Excel/55.+IRR-Lecture.xlsx
+++ b/Section 6/66. Calculating Internal Rate of Return (IRR) in Excel/55.+IRR-Lecture.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data_science\udemy_economics\Section 6\66. Calculating Internal Rate of Return (IRR) in Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7342110-147A-4BC2-93FD-15405F67A4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5EB22E-0F66-466E-B8B1-A7CACE84C460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="270" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="270" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IRR" sheetId="1" r:id="rId1"/>
+    <sheet name="IRR manual" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>interest rate:</t>
   </si>
@@ -268,9 +269,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -280,6 +278,9 @@
     <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -598,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,13 +643,13 @@
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
@@ -823,12 +824,12 @@
         <v>6</v>
       </c>
       <c r="E17" s="10"/>
-      <c r="F17" s="26">
+      <c r="F17" s="25">
         <f>IRR(E8:J8)</f>
         <v>5.1895798127592263E-2</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="24" t="s">
+      <c r="G17" s="22"/>
+      <c r="H17" s="23" t="s">
         <v>8</v>
       </c>
     </row>
@@ -892,7 +893,7 @@
         <v>-500</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" ref="F25:J25" si="1">F24/(1+$C$4)^F23</f>
+        <f t="shared" ref="F25:I25" si="1">F24/(1+$C$4)^F23</f>
         <v>27.27272727272727</v>
       </c>
       <c r="G25" s="8">
@@ -933,7 +934,7 @@
       <c r="B28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="24">
         <f>IRR(E24:J24)</f>
         <v>5.1895798127592263E-2</v>
       </c>
@@ -945,4 +946,249 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D01DA5A-C6E6-43BB-A56F-702ED8F3B59F}">
+  <dimension ref="B2:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="F5" s="20">
+        <v>1</v>
+      </c>
+      <c r="G5" s="20">
+        <v>2</v>
+      </c>
+      <c r="H5" s="20">
+        <v>3</v>
+      </c>
+      <c r="I5" s="20">
+        <v>4</v>
+      </c>
+      <c r="J5" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="19">
+        <v>-500</v>
+      </c>
+      <c r="F6" s="19">
+        <v>30</v>
+      </c>
+      <c r="G6" s="8">
+        <v>120</v>
+      </c>
+      <c r="H6" s="8">
+        <v>200</v>
+      </c>
+      <c r="I6" s="8">
+        <v>120</v>
+      </c>
+      <c r="J6" s="8">
+        <v>120</v>
+      </c>
+      <c r="K6" t="str">
+        <f>"this profit is logical only when rate "&amp; ROUND(F15,4)*100 &amp; "%"</f>
+        <v>this profit is logical only when rate 5.19%</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="19">
+        <v>-500</v>
+      </c>
+      <c r="F7" s="19">
+        <f>F6/($C$2+1)^F5</f>
+        <v>27.27272727272727</v>
+      </c>
+      <c r="G7" s="19">
+        <f t="shared" ref="G7:J7" si="0">G6/($C$2+1)^G5</f>
+        <v>99.173553719008254</v>
+      </c>
+      <c r="H7" s="19">
+        <f t="shared" si="0"/>
+        <v>150.2629601803155</v>
+      </c>
+      <c r="I7" s="19">
+        <f t="shared" si="0"/>
+        <v>81.96161464380846</v>
+      </c>
+      <c r="J7" s="19">
+        <f t="shared" si="0"/>
+        <v>74.510558767098601</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11">
+        <f>SUM(E7:J7)</f>
+        <v>-66.818585417041888</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="17"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11">
+        <f>NPV(C2,F6:J6)+E6</f>
+        <v>-66.818585417041902</v>
+      </c>
+      <c r="G13" s="11" t="b">
+        <f>F13=F11</f>
+        <v>1</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="25">
+        <f>IRR(E6:J6)</f>
+        <v>5.1895798127592263E-2</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F4:J4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Section 6/66. Calculating Internal Rate of Return (IRR) in Excel/55.+IRR-Lecture.xlsx
+++ b/Section 6/66. Calculating Internal Rate of Return (IRR) in Excel/55.+IRR-Lecture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data_science\udemy_economics\Section 6\66. Calculating Internal Rate of Return (IRR) in Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5EB22E-0F66-466E-B8B1-A7CACE84C460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CCD365-E2C1-4668-934A-60ECED22F7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="270" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -224,7 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -282,6 +282,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -950,10 +951,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D01DA5A-C6E6-43BB-A56F-702ED8F3B59F}">
-  <dimension ref="B2:K15"/>
+  <dimension ref="B2:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,6 +1186,12 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F16" s="27">
+        <f>IRR(E6:J6)</f>
+        <v>5.1895798127592263E-2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F4:J4"/>
